--- a/biology/Zoologie/Dendrobranchiata/Dendrobranchiata.xlsx
+++ b/biology/Zoologie/Dendrobranchiata/Dendrobranchiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dendrobranchiata[1] sont un sous-ordre de crustacés décapodes dont les représentants ressemblent à des crevettes. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dendrobranchiata sont un sous-ordre de crustacés décapodes dont les représentants ressemblent à des crevettes. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs branchies sont constituées d’un axe ramifié de manière complexe, alors que dans l’autre sous-ordre (les Pleocyemata) les branchies portent des filaments ou des lamelles simples. À quelques exceptions près, les Dendrobranchiata pondent leurs œufs directement dans l’eau où ont lieu la fécondation et le développement. L’éclosion libère une larve nauplius.
 Ce sous-ordre a été créé par Charles Spence Bate (1819-1889) en 1888.
@@ -543,9 +557,11 @@
           <t>Liste des super-familles et familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (31 décembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (31 décembre 2014) :
 Super-famille Penaeoidea Rafinesque, 1815 -- les crevettes pénéides (les « grandes crevettes » ou gambas)
 Famille Aristeidae Wood-Mason, 1891
 Famille Benthesicymidae Wood-Mason, 1891
